--- a/erd/normalization.xlsx
+++ b/erd/normalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1НФ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>кадровый_номер</t>
   </si>
@@ -91,17 +91,35 @@
     <t>приоритет</t>
   </si>
   <si>
-    <t>ист_измены_статуса</t>
-  </si>
-  <si>
     <t>сотрудник</t>
+  </si>
+  <si>
+    <t>id дефекта</t>
+  </si>
+  <si>
+    <t>исполнитель</t>
+  </si>
+  <si>
+    <t>создатель</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
+  <si>
+    <t>id_раунда</t>
+  </si>
+  <si>
+    <t>id_изменения</t>
+  </si>
+  <si>
+    <t>id_проверки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +135,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,17 +209,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +547,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D22"/>
+  <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,161 +1062,253 @@
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="12"/>
+      <c r="D20" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/erd/normalization.xlsx
+++ b/erd/normalization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1НФ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
   <si>
     <t>кадровый_номер</t>
   </si>
@@ -64,9 +64,6 @@
     <t>спецификация</t>
   </si>
   <si>
-    <t>id_результата</t>
-  </si>
-  <si>
     <t>результат</t>
   </si>
   <si>
@@ -113,18 +110,47 @@
   </si>
   <si>
     <t>id_проверки</t>
+  </si>
+  <si>
+    <t>id проверки</t>
+  </si>
+  <si>
+    <t>id результата</t>
+  </si>
+  <si>
+    <t>id раунда</t>
+  </si>
+  <si>
+    <t>данные</t>
+  </si>
+  <si>
+    <t>опис_сборки</t>
+  </si>
+  <si>
+    <t>результата</t>
+  </si>
+  <si>
+    <t>id_изменения(смена статуса)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,9 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,15 +263,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W26"/>
+  <dimension ref="B2:W27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,6 +604,8 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -588,13 +619,15 @@
       <c r="U2" s="10"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="12"/>
+      <c r="H3" s="20"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="9"/>
@@ -612,6 +645,8 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="9"/>
@@ -625,13 +660,15 @@
       <c r="U4" s="6"/>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="12"/>
+      <c r="H5" s="10"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="9"/>
@@ -645,13 +682,15 @@
       <c r="U5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="12"/>
+      <c r="H6" s="10"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -669,6 +708,8 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -689,6 +730,8 @@
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
@@ -706,6 +749,8 @@
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="12"/>
+      <c r="H9" s="12"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -720,8 +765,10 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -734,13 +781,15 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F11" s="12"/>
+      <c r="H11" s="20"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -753,13 +802,15 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="12"/>
       <c r="K12" s="7"/>
       <c r="L12" s="6"/>
       <c r="M12" s="7"/>
@@ -774,11 +825,13 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="F13" s="13"/>
+      <c r="H13" s="12"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -791,10 +844,15 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="H14" s="12"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -810,9 +868,11 @@
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="H15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -828,12 +888,11 @@
       <c r="W15" s="6"/>
     </row>
     <row r="16" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="H16" s="12"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -849,9 +908,14 @@
       <c r="W16" s="6"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7"/>
       <c r="M17" s="6"/>
@@ -866,13 +930,12 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="18" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="H18" s="10"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -888,12 +951,14 @@
       <c r="W18" s="6"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="H19" s="13"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -908,10 +973,14 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="20"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -927,7 +996,10 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -943,10 +1015,7 @@
       <c r="W21" s="6"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="14"/>
+      <c r="H22" s="12"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -962,9 +1031,10 @@
       <c r="W22" s="6"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="12"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -981,7 +1051,7 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="6"/>
@@ -998,10 +1068,9 @@
       <c r="W24" s="6"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
@@ -1020,9 +1089,11 @@
       <c r="W25" s="6"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="F26" s="12"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="12"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -1038,6 +1109,9 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="H27" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1046,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:N30"/>
+  <dimension ref="B8:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1099,10 +1173,10 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1111,10 +1185,10 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1133,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1219,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1153,21 +1227,24 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="2" t="s">
@@ -1176,16 +1253,16 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="16" t="s">
@@ -1194,7 +1271,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
@@ -1205,7 +1282,7 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1214,41 +1291,621 @@
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="G27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:S29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E26" s="12"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1256,16 +1913,13 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -1273,68 +1927,250 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="M29" s="7"/>
       <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>